--- a/Biomass/Shock/Biomass_ongrid.xlsx
+++ b/Biomass/Shock/Biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Old Code\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Biomass\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A7C3B-3724-4D51-B158-DD9F4C2482CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5F1204-53C6-4B25-891A-D44C8D630AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1129,18 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,6 +1155,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1501,33 +1501,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="46">
         <f>main!C35</f>
         <v>-2.5592417061611375E-2</v>
       </c>
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,23 +1571,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="47">
         <f>main!C31</f>
-        <v>5421.3</v>
+        <v>0.99999999999967049</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
@@ -1646,79 +1646,79 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="45">
         <f>main!C32</f>
         <v>-2072.2135007849292</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="49">
         <f>main!C33</f>
         <v>-1417.3333333333333</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="47" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1788,46 +1788,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="42" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="50">
         <f>main!C34</f>
-        <v>216.852</v>
-      </c>
-      <c r="G2" s="51" t="s">
+        <v>3.9999999999986817E-2</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2535,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="13" t="s">
         <v>198</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
         <v>199</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
         <v>200</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="30" t="s">
         <v>246</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="30" t="s">
         <v>239</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="30" t="s">
         <v>254</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="13" t="s">
         <v>204</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="13" t="s">
         <v>207</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="13" t="s">
         <v>179</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="13" t="s">
         <v>181</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="13" t="s">
         <v>182</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="13" t="s">
         <v>210</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="13" t="s">
         <v>218</v>
       </c>
@@ -2859,13 +2859,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="13" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="20">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
-        <v>35.700000000000003</v>
+        <v>6.5851364063948207E-3</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>188</v>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="13" t="s">
         <v>227</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="13" t="s">
         <v>225</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="13" t="s">
         <v>226</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="40">
-        <v>17</v>
+        <v>3.1357792411403906E-3</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>224</v>
@@ -2959,7 +2959,7 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="53" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2980,7 +2980,7 @@
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="12" t="s">
         <v>237</v>
       </c>
@@ -2997,13 +2997,13 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="25" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="23">
         <f>C2*C16*C19*C9/(10^6)</f>
-        <v>4517.75</v>
+        <v>0.8333333333330587</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>188</v>
@@ -3017,7 +3017,7 @@
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="25" t="s">
         <v>206</v>
       </c>
@@ -3037,13 +3037,13 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="25" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="23">
         <f>C4*C18*C19*1000*C9/(10^6)</f>
-        <v>903.55</v>
+        <v>0.16666666666661176</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>188</v>
@@ -3057,7 +3057,7 @@
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="25" t="s">
         <v>217</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="25" t="s">
         <v>221</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="25" t="s">
         <v>222</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="18" t="s">
         <v>215</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="18" t="s">
         <v>242</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="18" t="s">
         <v>248</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="51" t="s">
         <v>177</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C31" s="28">
         <f>SUM(C22:C24)</f>
-        <v>5421.3</v>
+        <v>0.99999999999967049</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>188</v>
@@ -3205,7 +3205,7 @@
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="15" t="s">
         <v>214</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="15" t="s">
         <v>249</v>
       </c>
@@ -3249,13 +3249,13 @@
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="26">
         <f>C31/C13</f>
-        <v>216.852</v>
+        <v>3.9999999999986817E-2</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>188</v>
@@ -3271,7 +3271,7 @@
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
         <v>209</v>
       </c>
